--- a/modelagem/spmedgroup.xlsx
+++ b/modelagem/spmedgroup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52041722894\Desktop\SP_MED_GROUP\modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52041722894\Desktop\senai_spmedgroup_sprint1_bd_tarde_lucas_santos_costa\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB55249-164E-4411-8262-B81CBE5355A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82309936-7418-4ADD-83DD-0E2EA25AA855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1B40A04-8966-4249-ABC0-4E7C7D89BFA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>ADM</t>
   </si>
@@ -120,12 +120,6 @@
     <t>senha</t>
   </si>
   <si>
-    <t>sssss2gmail.com</t>
-  </si>
-  <si>
-    <t>ssssss</t>
-  </si>
-  <si>
     <t>CONSULTA</t>
   </si>
   <si>
@@ -145,6 +139,57 @@
   </si>
   <si>
     <t>realizada</t>
+  </si>
+  <si>
+    <t>especialidade</t>
+  </si>
+  <si>
+    <t>otorrino</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>idusuario</t>
+  </si>
+  <si>
+    <t>idtipousuario</t>
+  </si>
+  <si>
+    <t>nomeusuario</t>
+  </si>
+  <si>
+    <t>datanascimento</t>
+  </si>
+  <si>
+    <t>lucas s</t>
+  </si>
+  <si>
+    <t>lucas@santos.com</t>
+  </si>
+  <si>
+    <t>eeeeeee</t>
+  </si>
+  <si>
+    <t>TIPO USUARIO</t>
+  </si>
+  <si>
+    <t>Idtipousuario</t>
+  </si>
+  <si>
+    <t>titulotipousurio</t>
+  </si>
+  <si>
+    <t>medico</t>
+  </si>
+  <si>
+    <t>PASSIENTE</t>
+  </si>
+  <si>
+    <t>Idpassiente</t>
+  </si>
+  <si>
+    <t>idconsulta</t>
   </si>
 </sst>
 </file>
@@ -183,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +256,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -347,6 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -662,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C904A7D-C522-4A90-96FD-BEEFA520F8EF}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,38 +751,27 @@
     <col min="10" max="10" width="18.77734375" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="12"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
@@ -722,26 +781,23 @@
       <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="35">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="36">
-        <v>123456</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -751,14 +807,24 @@
       <c r="C4" s="22">
         <v>232323</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="36">
+        <v>123456</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="11" t="s">
         <v>19</v>
@@ -769,7 +835,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -792,7 +858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -815,37 +881,29 @@
         <v>40028922</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="25"/>
-      <c r="H13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="39">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
@@ -853,24 +911,8 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="28">
-        <v>44126</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -886,8 +928,17 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -903,11 +954,151 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="39">
+        <v>1</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="41">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44126</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
+        <v>1</v>
+      </c>
+      <c r="B25" s="42">
+        <v>4</v>
+      </c>
+      <c r="C25" s="42">
+        <v>2</v>
+      </c>
+      <c r="D25" s="42">
+        <v>444444444</v>
+      </c>
+      <c r="E25" s="42">
+        <v>444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H26" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{C9E34D3B-790E-486D-8CDE-830DCC00B225}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{C9E34D3B-790E-486D-8CDE-830DCC00B225}"/>
+    <hyperlink ref="K18" r:id="rId2" xr:uid="{32899AA4-0A63-4E4C-8ED1-43DFC63141DF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/modelagem/spmedgroup.xlsx
+++ b/modelagem/spmedgroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52041722894\Desktop\senai_spmedgroup_sprint1_bd_tarde_lucas_santos_costa\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82309936-7418-4ADD-83DD-0E2EA25AA855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962615C8-16E9-4CD8-B51B-4A7B8B941CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D1B40A04-8966-4249-ABC0-4E7C7D89BFA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>ADM</t>
   </si>
@@ -66,9 +66,6 @@
     <t>SpMedGroup</t>
   </si>
   <si>
-    <t>Capao Redondo</t>
-  </si>
-  <si>
     <t>MEDICO</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>crm</t>
   </si>
   <si>
-    <t>oswado cruz</t>
-  </si>
-  <si>
     <t>PRONTUARIO</t>
   </si>
   <si>
@@ -108,18 +102,9 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>wesley gomes</t>
-  </si>
-  <si>
-    <t>444344345-64</t>
-  </si>
-  <si>
     <t>3443323443-4</t>
   </si>
   <si>
-    <t>senha</t>
-  </si>
-  <si>
     <t>CONSULTA</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>lucas@santos.com</t>
   </si>
   <si>
-    <t>eeeeeee</t>
-  </si>
-  <si>
     <t>TIPO USUARIO</t>
   </si>
   <si>
@@ -190,6 +172,51 @@
   </si>
   <si>
     <t>idconsulta</t>
+  </si>
+  <si>
+    <t>daniel souza</t>
+  </si>
+  <si>
+    <t>carol profesora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234234234-3  </t>
+  </si>
+  <si>
+    <t>alameda barao de limeia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234234234-3   </t>
+  </si>
+  <si>
+    <t>carol professora</t>
+  </si>
+  <si>
+    <t>carol@gmail.com</t>
+  </si>
+  <si>
+    <t>saulo professor</t>
+  </si>
+  <si>
+    <t>saulo@gmail.com</t>
+  </si>
+  <si>
+    <t>possarle professor</t>
+  </si>
+  <si>
+    <t>roberto@gmail.com</t>
+  </si>
+  <si>
+    <t>ivete professora</t>
+  </si>
+  <si>
+    <t>ivete@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>daniel@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -417,6 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -732,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C904A7D-C522-4A90-96FD-BEEFA520F8EF}">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,13 +771,13 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" customWidth="1"/>
@@ -760,7 +788,7 @@
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="38"/>
@@ -773,16 +801,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>1</v>
@@ -802,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22">
-        <v>232323</v>
+        <v>999999</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="35">
@@ -818,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="36">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>6</v>
@@ -827,7 +855,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -837,25 +865,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -866,33 +894,33 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="23">
-        <v>36852</v>
+        <v>33188</v>
       </c>
       <c r="G10" s="22">
-        <v>40028922</v>
+        <v>11932344223</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F12" s="42"/>
       <c r="G12" s="42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F13" s="39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -900,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -930,15 +958,15 @@
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -952,31 +980,28 @@
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I17" s="39" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G18" s="39">
         <v>1</v>
       </c>
@@ -987,49 +1012,78 @@
         <v>1</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="41">
+        <v>41</v>
+      </c>
+      <c r="L18" s="41">
         <v>37186</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="39">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <v>3</v>
+      </c>
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G20" s="39">
+        <v>2</v>
+      </c>
+      <c r="H20" s="39">
+        <v>3</v>
+      </c>
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>1</v>
       </c>
@@ -1044,54 +1098,107 @@
         <v>44126</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G21" s="39">
+        <v>3</v>
+      </c>
+      <c r="H21" s="39">
+        <v>3</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="39">
+        <v>4</v>
+      </c>
+      <c r="H22" s="39">
+        <v>3</v>
+      </c>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G23" s="39">
+        <v>5</v>
+      </c>
+      <c r="H23" s="39">
+        <v>2</v>
+      </c>
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="42">
         <v>2</v>
       </c>
-      <c r="D25" s="42">
-        <v>444444444</v>
+      <c r="D25" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="E25" s="42">
-        <v>444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>223234556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H26" s="44"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
